--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.09140199723068</v>
+        <v>90.08815536798762</v>
       </c>
       <c r="D2" t="n">
-        <v>1.943494404823525</v>
+        <v>1.706168078068469</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.14765568677227</v>
+        <v>88.64819735295218</v>
       </c>
       <c r="D3" t="n">
-        <v>1.80917144146737</v>
+        <v>1.695352806092597</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.08373398086538</v>
+        <v>88.040081258965</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80487885774294</v>
+        <v>1.614939481061358</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.1158937518761</v>
+        <v>86.96454501884492</v>
       </c>
       <c r="D5" t="n">
-        <v>1.97210410359489</v>
+        <v>1.750424908959034</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.71217319973239</v>
+        <v>85.87445247992838</v>
       </c>
       <c r="D6" t="n">
-        <v>1.796413184109801</v>
+        <v>1.652221277046398</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0137208782228</v>
+        <v>84.90977060400019</v>
       </c>
       <c r="D7" t="n">
-        <v>1.717337819456343</v>
+        <v>1.753909738874128</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.99522888295618</v>
+        <v>84.19272286458707</v>
       </c>
       <c r="D8" t="n">
-        <v>1.967357504430722</v>
+        <v>1.752504989067572</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.7096337833034</v>
+        <v>83.09114564790205</v>
       </c>
       <c r="D9" t="n">
-        <v>1.713720575615618</v>
+        <v>1.636871575627639</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.05605882197771</v>
+        <v>81.89821862021898</v>
       </c>
       <c r="D10" t="n">
-        <v>1.883076361209876</v>
+        <v>1.558643224484251</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.96855409397558</v>
+        <v>80.87620996978397</v>
       </c>
       <c r="D11" t="n">
-        <v>1.957434417928945</v>
+        <v>1.717869365069328</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.92188076742217</v>
+        <v>80.02423820219937</v>
       </c>
       <c r="D12" t="n">
-        <v>1.714930260828324</v>
+        <v>1.873643276074688</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.02964282785024</v>
+        <v>78.90365428647317</v>
       </c>
       <c r="D13" t="n">
-        <v>1.707053296233923</v>
+        <v>1.650835292804647</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.82317077356446</v>
+        <v>78.12083590525485</v>
       </c>
       <c r="D14" t="n">
-        <v>1.860004526767504</v>
+        <v>1.694508810596871</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.81869788022745</v>
+        <v>76.94535679567389</v>
       </c>
       <c r="D15" t="n">
-        <v>1.719718326294447</v>
+        <v>1.503687262960947</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.80900665439607</v>
+        <v>75.9579515570817</v>
       </c>
       <c r="D16" t="n">
-        <v>1.707186164642742</v>
+        <v>1.695233406387905</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.1314954564384</v>
+        <v>74.9455881374182</v>
       </c>
       <c r="D17" t="n">
-        <v>1.652175505411655</v>
+        <v>1.658227117431228</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.13788400496306</v>
+        <v>74.03801264077923</v>
       </c>
       <c r="D18" t="n">
-        <v>1.880585974260326</v>
+        <v>1.688746966293702</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.91114236468279</v>
+        <v>73.21137518372106</v>
       </c>
       <c r="D19" t="n">
-        <v>1.66513245638202</v>
+        <v>1.715527128450426</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.89135500554266</v>
+        <v>71.75760967229549</v>
       </c>
       <c r="D20" t="n">
-        <v>1.92838822188276</v>
+        <v>1.644880187809493</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.08500320874541</v>
+        <v>70.66851024373388</v>
       </c>
       <c r="D21" t="n">
-        <v>1.548724164577077</v>
+        <v>1.846804416070284</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.09178788325379</v>
+        <v>70.10576709443453</v>
       </c>
       <c r="D22" t="n">
-        <v>1.826583226855329</v>
+        <v>1.70417312241168</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.18290067615963</v>
+        <v>68.82305005029507</v>
       </c>
       <c r="D23" t="n">
-        <v>1.697083291970931</v>
+        <v>1.566421346066621</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.37029421125884</v>
+        <v>68.10713568658294</v>
       </c>
       <c r="D24" t="n">
-        <v>1.838654013088218</v>
+        <v>1.78917634366858</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.19498385550919</v>
+        <v>67.32278053823316</v>
       </c>
       <c r="D25" t="n">
-        <v>1.650439312645973</v>
+        <v>1.53622830937675</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.24098609860742</v>
+        <v>66.27001880770673</v>
       </c>
       <c r="D26" t="n">
-        <v>1.633832274584329</v>
+        <v>1.551376711757616</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07473661309044</v>
+        <v>64.83502644645642</v>
       </c>
       <c r="D27" t="n">
-        <v>1.678626795520449</v>
+        <v>1.987348087903558</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.27256466556129</v>
+        <v>64.07153029635164</v>
       </c>
       <c r="D28" t="n">
-        <v>1.63000262952691</v>
+        <v>1.853566737116483</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.94350599781787</v>
+        <v>63.07526360017757</v>
       </c>
       <c r="D29" t="n">
-        <v>1.783333086717386</v>
+        <v>1.549884152101862</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.15684282357442</v>
+        <v>62.00128337521659</v>
       </c>
       <c r="D30" t="n">
-        <v>1.944105070725634</v>
+        <v>1.568820353220042</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.61663974241883</v>
+        <v>61.08553895067813</v>
       </c>
       <c r="D31" t="n">
-        <v>1.64366649719942</v>
+        <v>1.740815371141635</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.04220721129921</v>
+        <v>59.84570715705961</v>
       </c>
       <c r="D32" t="n">
-        <v>1.846484402829734</v>
+        <v>1.883262896614232</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.93493537735797</v>
+        <v>59.30224703495754</v>
       </c>
       <c r="D33" t="n">
-        <v>1.905219221488928</v>
+        <v>1.978894640537774</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.86240308818397</v>
+        <v>58.06685728772084</v>
       </c>
       <c r="D34" t="n">
-        <v>1.670743625355745</v>
+        <v>1.757660722952157</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.65747068846949</v>
+        <v>57.24014714693219</v>
       </c>
       <c r="D35" t="n">
-        <v>1.724657584842956</v>
+        <v>1.625933464196679</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.90382247483635</v>
+        <v>55.78171673809401</v>
       </c>
       <c r="D36" t="n">
-        <v>1.8167040920618</v>
+        <v>1.6285067801489</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.09891376124992</v>
+        <v>54.79227224572913</v>
       </c>
       <c r="D37" t="n">
-        <v>1.755946249288657</v>
+        <v>2.039968523921063</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.05227796584096</v>
+        <v>53.87977857253449</v>
       </c>
       <c r="D38" t="n">
-        <v>1.572650971350046</v>
+        <v>1.846318719890081</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.05693224327612</v>
+        <v>53.06251966246592</v>
       </c>
       <c r="D39" t="n">
-        <v>1.830513358103315</v>
+        <v>1.916011411275153</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.84422935568175</v>
+        <v>52.07672658205011</v>
       </c>
       <c r="D40" t="n">
-        <v>1.858746164657383</v>
+        <v>1.673951106104802</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.03324824103672</v>
+        <v>51.15222709888437</v>
       </c>
       <c r="D41" t="n">
-        <v>1.798990031706475</v>
+        <v>1.639423921261911</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.01994554683811</v>
+        <v>50.04755623605898</v>
       </c>
       <c r="D42" t="n">
-        <v>1.692466620745559</v>
+        <v>1.822359104403885</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.82509481985659</v>
+        <v>48.97444231447562</v>
       </c>
       <c r="D43" t="n">
-        <v>1.632379318115152</v>
+        <v>1.519534795297939</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.74544383109967</v>
+        <v>47.93039456931576</v>
       </c>
       <c r="D44" t="n">
-        <v>1.969220350493809</v>
+        <v>1.889090538587063</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.83491374396745</v>
+        <v>47.06164981870653</v>
       </c>
       <c r="D45" t="n">
-        <v>1.779179927334826</v>
+        <v>1.833637422406056</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.89800874132532</v>
+        <v>45.95296559119802</v>
       </c>
       <c r="D46" t="n">
-        <v>1.542329572071699</v>
+        <v>1.922642553820835</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.11148974247511</v>
+        <v>44.97983677200075</v>
       </c>
       <c r="D47" t="n">
-        <v>1.82545380396194</v>
+        <v>1.842742537925824</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.92342664605203</v>
+        <v>44.09085237368024</v>
       </c>
       <c r="D48" t="n">
-        <v>1.830565684989795</v>
+        <v>1.754926852895371</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.85256932471848</v>
+        <v>42.74244326421302</v>
       </c>
       <c r="D49" t="n">
-        <v>2.036727246890312</v>
+        <v>1.771454483335416</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.41449905235838</v>
+        <v>41.8383598640548</v>
       </c>
       <c r="D50" t="n">
-        <v>1.676680055140837</v>
+        <v>1.944963541865571</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.19639906447404</v>
+        <v>40.5705901427117</v>
       </c>
       <c r="D51" t="n">
-        <v>1.696425952886274</v>
+        <v>1.621365341522712</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.09872267689516</v>
+        <v>40.13777212366822</v>
       </c>
       <c r="D52" t="n">
-        <v>1.64721691874018</v>
+        <v>1.768623121101095</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.40611750144872</v>
+        <v>38.91622864388447</v>
       </c>
       <c r="D53" t="n">
-        <v>1.734107984383849</v>
+        <v>1.728676388990725</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.99073467916946</v>
+        <v>38.15014520589268</v>
       </c>
       <c r="D54" t="n">
-        <v>1.678408592016349</v>
+        <v>1.554554072263085</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.8171049216656</v>
+        <v>36.64357120643275</v>
       </c>
       <c r="D55" t="n">
-        <v>1.901613848712072</v>
+        <v>2.057737147113469</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.41377317655311</v>
+        <v>36.17020382567943</v>
       </c>
       <c r="D56" t="n">
-        <v>1.770744832114797</v>
+        <v>1.94033414608616</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.80538525159158</v>
+        <v>34.97371986072022</v>
       </c>
       <c r="D57" t="n">
-        <v>1.859231874831561</v>
+        <v>1.901707458069899</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.02294014243549</v>
+        <v>34.31099157947456</v>
       </c>
       <c r="D58" t="n">
-        <v>1.628935881632924</v>
+        <v>1.712075688112314</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.93083664862423</v>
+        <v>32.96792363112161</v>
       </c>
       <c r="D59" t="n">
-        <v>1.756749506913731</v>
+        <v>1.645293191457582</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99600182027153</v>
+        <v>32.21214228859105</v>
       </c>
       <c r="D60" t="n">
-        <v>1.752380576629755</v>
+        <v>1.895584276437866</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.01155611807644</v>
+        <v>31.01244701230737</v>
       </c>
       <c r="D61" t="n">
-        <v>1.83345199106335</v>
+        <v>2.03634546499679</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.97123164571558</v>
+        <v>30.02981604021477</v>
       </c>
       <c r="D62" t="n">
-        <v>1.750734827867837</v>
+        <v>1.80254421061825</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.89668981956569</v>
+        <v>28.89314158337737</v>
       </c>
       <c r="D63" t="n">
-        <v>1.69072752747835</v>
+        <v>2.044509498230525</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.90309302719165</v>
+        <v>27.83839335752637</v>
       </c>
       <c r="D64" t="n">
-        <v>1.849383567360287</v>
+        <v>1.690598238357438</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.98969235506167</v>
+        <v>27.05824906107773</v>
       </c>
       <c r="D65" t="n">
-        <v>1.75284369897583</v>
+        <v>1.82769871738254</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.07932766226011</v>
+        <v>26.13897644480791</v>
       </c>
       <c r="D66" t="n">
-        <v>1.860690876281227</v>
+        <v>1.756180648638146</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.09589386054223</v>
+        <v>24.69659256195694</v>
       </c>
       <c r="D67" t="n">
-        <v>1.891536809741967</v>
+        <v>2.039716545487214</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.89229499831268</v>
+        <v>24.11350861521229</v>
       </c>
       <c r="D68" t="n">
-        <v>1.9917059417851</v>
+        <v>1.709710111939719</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.98965120716598</v>
+        <v>22.79263530352596</v>
       </c>
       <c r="D69" t="n">
-        <v>2.028935031387998</v>
+        <v>2.017447685884228</v>
       </c>
     </row>
   </sheetData>
